--- a/AnalysisSummary.xlsx
+++ b/AnalysisSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4464606i\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B717B-CA6D-4ACC-9234-1AFC821E960D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1B7BA3-B12E-461A-AEDC-1700518C6B14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{DDC3D8F1-7458-421F-95F1-5ABA0FD69C23}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>transaction_select_payment</t>
   </si>
   <si>
-    <t>Сумма</t>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,6 +813,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -859,7 +860,47 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1190,14 +1231,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA1DA3-A2B1-4022-BF8C-C57159F3F5AA}">
-  <dimension ref="K4:P13"/>
+  <dimension ref="C1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:N20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1206,209 +1253,230 @@
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="1" t="s">
+    <row r="1" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="1">
+    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="11">
+      <c r="E3" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="N6" s="14">
+      <c r="F3" s="14">
         <v>72</v>
       </c>
-      <c r="O6" s="4">
+      <c r="G3" s="4">
         <f>74</f>
         <v>74</v>
       </c>
-      <c r="P6" s="5">
-        <f t="shared" ref="P6:P13" si="0">N6/O6-100%</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H10" si="0">F3/G3-100%</f>
         <v>-2.7027027027026973E-2</v>
       </c>
     </row>
-    <row r="7" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="1">
+    <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="17">
+      <c r="E4" s="17">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="F4" s="12">
         <v>408</v>
       </c>
-      <c r="O7" s="6">
+      <c r="G4" s="6">
         <f>422</f>
         <v>422</v>
       </c>
-      <c r="P7" s="5">
-        <f t="shared" si="0"/>
+      <c r="H4" s="5">
+        <f>F4/G4-100%</f>
         <v>-3.3175355450236976E-2</v>
       </c>
     </row>
-    <row r="8" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="7">
+    <row r="5" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="17">
+      <c r="E5" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N8" s="12">
-        <v>315</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="F5" s="12">
+        <v>312</v>
+      </c>
+      <c r="G5" s="6">
         <f>326</f>
         <v>326</v>
       </c>
-      <c r="P8" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.3742331288343586E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="1">
+      <c r="H5" s="5">
+        <f>F5/G5-100%</f>
+        <v>-4.2944785276073594E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="17">
+      <c r="E6" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N9" s="12">
+      <c r="F6" s="12">
         <v>273</v>
       </c>
-      <c r="O9" s="6">
-        <f>251</f>
-        <v>251</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.7649402390438169E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="1">
+      <c r="G6" s="6">
+        <f>261</f>
+        <v>261</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H10" si="1">F6/G6-100%</f>
+        <v>4.5977011494252817E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="17">
+      <c r="E7" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N10" s="12">
-        <v>270</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="F7" s="12">
+        <v>273</v>
+      </c>
+      <c r="G7" s="6">
         <f>282</f>
         <v>282</v>
       </c>
-      <c r="P10" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.2553191489361653E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="1">
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.1914893617021267E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="17">
+      <c r="E8" s="17">
         <v>0.108</v>
       </c>
-      <c r="N11" s="12">
+      <c r="F8" s="12">
         <v>165</v>
       </c>
-      <c r="O11" s="6">
+      <c r="G8" s="6">
         <f>159</f>
         <v>159</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" si="0"/>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
         <v>3.7735849056603765E-2</v>
       </c>
     </row>
-    <row r="12" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="1">
+    <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="15">
+      <c r="E9" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N12" s="16">
-        <v>186</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="F9" s="16">
+        <v>183</v>
+      </c>
+      <c r="G9" s="8">
         <f>175</f>
         <v>175</v>
       </c>
-      <c r="P12" s="5">
-        <f t="shared" si="0"/>
-        <v>6.2857142857142945E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="9"/>
-      <c r="L13" s="10" t="s">
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5714285714285818E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="1">
-        <f>SUM(N6:N12)</f>
-        <v>1689</v>
-      </c>
-      <c r="O13" s="19">
-        <f>SUM(O6:O12)</f>
-        <v>1689</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="1">
+        <f>SUM(F3:F9)</f>
+        <v>1686</v>
+      </c>
+      <c r="G10" s="19">
+        <f>SUM(G3:G9)</f>
+        <v>1699</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.6515597410241609E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="20"/>
+    </row>
+    <row r="19" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="20"/>
+    </row>
+    <row r="20" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P6:P13">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P13">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="notBetween">
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>

--- a/AnalysisSummary.xlsx
+++ b/AnalysisSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4464606i\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1B7BA3-B12E-461A-AEDC-1700518C6B14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8634EF5-70C6-48CF-9B8C-660F15F4B957}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{DDC3D8F1-7458-421F-95F1-5ABA0FD69C23}"/>
   </bookViews>
@@ -860,47 +860,7 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1234,7 +1194,7 @@
   <dimension ref="C1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,12 +1248,12 @@
         <v>72</v>
       </c>
       <c r="G3" s="4">
-        <f>74</f>
-        <v>74</v>
+        <f>73</f>
+        <v>73</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H10" si="0">F3/G3-100%</f>
-        <v>-2.7027027027026973E-2</v>
+        <f t="shared" ref="H3" si="0">F3/G3-100%</f>
+        <v>-1.3698630136986356E-2</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1310,12 +1270,12 @@
         <v>408</v>
       </c>
       <c r="G4" s="6">
-        <f>422</f>
-        <v>422</v>
+        <f>401</f>
+        <v>401</v>
       </c>
       <c r="H4" s="5">
         <f>F4/G4-100%</f>
-        <v>-3.3175355450236976E-2</v>
+        <v>1.7456359102244301E-2</v>
       </c>
     </row>
     <row r="5" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1332,12 +1292,12 @@
         <v>312</v>
       </c>
       <c r="G5" s="6">
-        <f>326</f>
-        <v>326</v>
+        <f>312</f>
+        <v>312</v>
       </c>
       <c r="H5" s="5">
         <f>F5/G5-100%</f>
-        <v>-4.2944785276073594E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1354,12 +1314,12 @@
         <v>273</v>
       </c>
       <c r="G6" s="6">
-        <f>261</f>
-        <v>261</v>
+        <f>272</f>
+        <v>272</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ref="H6:H10" si="1">F6/G6-100%</f>
-        <v>4.5977011494252817E-2</v>
+        <v>3.6764705882352811E-3</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,12 +1336,12 @@
         <v>273</v>
       </c>
       <c r="G7" s="6">
-        <f>282</f>
-        <v>282</v>
+        <f>272</f>
+        <v>272</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>-3.1914893617021267E-2</v>
+        <v>3.6764705882352811E-3</v>
       </c>
     </row>
     <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,12 +1358,12 @@
         <v>165</v>
       </c>
       <c r="G8" s="6">
-        <f>159</f>
-        <v>159</v>
+        <f>166</f>
+        <v>166</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>3.7735849056603765E-2</v>
+        <v>-6.0240963855421326E-3</v>
       </c>
     </row>
     <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1420,12 +1380,12 @@
         <v>183</v>
       </c>
       <c r="G9" s="8">
-        <f>175</f>
-        <v>175</v>
+        <f>183</f>
+        <v>183</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>4.5714285714285818E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1440,11 +1400,11 @@
       </c>
       <c r="G10" s="19">
         <f>SUM(G3:G9)</f>
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>-7.6515597410241609E-3</v>
+        <v>4.1691483025609877E-3</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
